--- a/TestResults/AddressLabelsGraphQL.xlsx
+++ b/TestResults/AddressLabelsGraphQL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="104">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -47,28 +47,44 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>Verify that the Address Label GraphQL  service successfully retrieving all Language details when  geopoliticalId parameter is passed in request body</t>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL  service successfully retrieving all  details when no parameter is passed in request body</t>
   </si>
   <si>
     <t>GraphQL</t>
   </si>
   <si>
-    <t>{"query":"{addressLabels (geopoliticalId:\"7293978259589461100\"){  geopoliticalId  localeCode  addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+    <t>{"query":"{addressLabels {  geopoliticalId  localeCode  addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
+    <t>Total number of records matching between DB &amp; Response: 12, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 6428655554025313328
+DB_geopoliticalId: 6428655554025313328
+Response_localeCode: KO
+DB_localeCode: KO
+Response_addressLineNumber: 1
+DB_addressLineNumber: 1
+Response_brandAddressLineDescription: TestBrandAddressA
+DB_brandAddressLineDescription: TestBrandAddressA
+Response_applicable: 0
+DB_applicable: 0
+</t>
   </si>
   <si>
     <t xml:space="preserve">Response_geopoliticalId: 7293978259589461100
@@ -83,13 +99,612 @@
 DB_applicable: 0
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 6428655554025313328
+DB_geopoliticalId: 6428655554025313328
+Response_localeCode: KK
+DB_localeCode: KK
+Response_addressLineNumber: 1
+DB_addressLineNumber: 1
+Response_brandAddressLineDescription: TestBrandAddressA
+DB_brandAddressLineDescription: TestBrandAddressA
+Response_applicable: 1
+DB_applicable: 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 6428655554025313328
+DB_geopoliticalId: 6428655554025313328
+Response_localeCode: AQ
+DB_localeCode: AQ
+Response_addressLineNumber: 1
+DB_addressLineNumber: 1
+Response_brandAddressLineDescription: TestBrandAddressA
+DB_brandAddressLineDescription: TestBrandAddressA
+Response_applicable: 1
+DB_applicable: 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 7886394310148935545
+DB_geopoliticalId: 7886394310148935545
+Response_localeCode: qw
+DB_localeCode: qw
+Response_addressLineNumber: 1
+DB_addressLineNumber: 1
+Response_brandAddressLineDescription: TestBrandAddress test A
+DB_brandAddressLineDescription: TestBrandAddress test A
+Response_applicable: 0
+DB_applicable: 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 7639211246931386992
+DB_geopoliticalId: 7639211246931386992
+Response_localeCode: Xn
+DB_localeCode: Xn
+Response_addressLineNumber: 1
+DB_addressLineNumber: 1
+Response_brandAddressLineDescription: TestBrandAddress
+DB_brandAddressLineDescription: TestBrandAddress
+Response_applicable: 0
+DB_applicable: 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 7886394310148935545
+DB_geopoliticalId: 7886394310148935545
+Response_localeCode: en-YN
+DB_localeCode: en-YN
+Response_addressLineNumber: 1
+DB_addressLineNumber: 1
+Response_brandAddressLineDescription: ADDRESS LINE 5
+DB_brandAddressLineDescription: ADDRESS LINE 5
+Response_applicable: 1
+DB_applicable: 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 1776757804467836839
+DB_geopoliticalId: 5779091224180468778
+Response_localeCode: tq
+DB_localeCode: cd
+Response_addressLineNumber: 3
+DB_addressLineNumber: 3
+Response_brandAddressLineDescription: Testing Brand Address YN 
+DB_brandAddressLineDescription: Testing Brand Address D
+Response_applicable: 1
+DB_applicable: 0
+</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>This record is not matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 5779091224180468778
+DB_geopoliticalId: 7886394310148935545
+Response_localeCode: cd
+DB_localeCode: en-YN
+Response_addressLineNumber: 3
+DB_addressLineNumber: 4
+Response_brandAddressLineDescription: Testing Brand Address D
+DB_brandAddressLineDescription: ADDRESS LINE 5
+Response_applicable: 0
+DB_applicable: 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 7886394310148935545
+DB_geopoliticalId: 6428655554025313328
+Response_localeCode: en-YN
+DB_localeCode: KO
+Response_addressLineNumber: 4
+DB_addressLineNumber: 8
+Response_brandAddressLineDescription: ADDRESS LINE 5
+DB_brandAddressLineDescription: TestBrandAddressA
+Response_applicable: 1
+DB_applicable: 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 6428655554025313328
+DB_geopoliticalId: 5779091224180468778
+Response_localeCode: KO
+DB_localeCode: en-OQ
+Response_addressLineNumber: 8
+DB_addressLineNumber: 32
+Response_brandAddressLineDescription: TestBrandAddressA
+DB_brandAddressLineDescription: test Address Line 2
+Response_applicable: 0
+DB_applicable: 0
+</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL  service successfully retrieving all  details when  geopoliticalId parameter is passed in request body</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels (geopoliticalId:\"7293978259589461100\"){  geopoliticalId  localeCode  addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL  service successfully retrieving all  details when  geopoliticalId  and Locale code parameter is passed in request body</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels (geopoliticalId:\"6428655554025313328\", localeCode:\"AQ\"){  geopoliticalId  localeCode  addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL  service successfully retrieving all  details when  geopoliticalId, Locale code and addressLineNumber  parameter is passed in request body</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels (geopoliticalId:\"6428655554025313328\", localeCode:\"KO\" ,  addressLineNumber: 1){  geopoliticalId  localeCode  addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL  service not  retrieving all details when wrong  value  passed for geopoliticalId  parameter  in request body</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels (geopoliticalId:\"642865555402531332877\"){  geopoliticalId  localeCode  addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"b887fab6-df81-4488-bec3-4a01707420ec",
+		"timeStamp":"2020-07-14T08:54:26.028+0000",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":null,
+			"data":null
+		}
+	},
+	"data":
+	{
+		"addressLabels":
+		[
+		]
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL  service not  retrieving all details when exist geopoliticalId and   non-exist  localeCd  parameter value passed  in request body</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels (geopoliticalId:\"6428655554025313328\", localeCode:\"pp\"){  geopoliticalId  localeCode  addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"b9946d01-3d32-4735-af43-11cae58c26f6",
+		"timeStamp":"2020-07-14T08:54:28.574+0000",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":null,
+			"data":null
+		}
+	},
+	"data":
+	{
+		"addressLabels":
+		[
+		]
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL  service not  retrieving all details when exist geopoliticalId , localeCd  and non-exist addressLineNumber parameter value passed  in request body</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels (geopoliticalId:\"6428655554025313328\", localeCode:\"KO\" ,  addressLineNumber: 9){  geopoliticalId  localeCode  addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"e7905fa5-1128-46ee-95e9-07437bd7da2a",
+		"timeStamp":"2020-07-14T08:54:31.063+0000",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":null,
+			"data":null
+		}
+	},
+	"data":
+	{
+		"addressLabels":
+		[
+		]
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the invalid geopoliticalId  attribute name in request.</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels {  geopoliticalI  localeCode  addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"1d31d64d-d70f-4e3b-b036-860ae99903c7",
+		"timeStamp":"2020-07-14T08:54:33.491+0000",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'geopoliticalI' in type 'AddressLabel' is undefined @ 'addressLabels/geopoliticalI'",
+			"path":null
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the invalid localeCode  attribute name in request.</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels {  geopoliticalId  localeCod  addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"9d91086a-085e-43c2-a4b2-963a047dd3ff",
+		"timeStamp":"2020-07-14T08:54:34.841+0000",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'localeCod' in type 'AddressLabel' is undefined @ 'addressLabels/localeCod'",
+			"path":null
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the invalid addressLineNumber  attribute name in request.</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels {  geopoliticalId  localeCode  addressLineNumbe  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"900457d2-3ce3-461e-926a-5fdde6d0557d",
+		"timeStamp":"2020-07-14T08:54:36.126+0000",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'addressLineNumbe' in type 'AddressLabel' is undefined @ 'addressLabels/addressLineNumbe'",
+			"path":null
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the invalid brandAddressLineDescription  attribute name in request.</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels {  geopoliticalId  localeCode  addressLineNumber  brandAddressLineDescriptio  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"722e400b-88e4-4acd-bf9d-4242363f9703",
+		"timeStamp":"2020-07-14T08:54:37.705+0000",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'brandAddressLineDescriptio' in type 'AddressLabel' is undefined @ 'addressLabels/brandAddressLineDescriptio'",
+			"path":null
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the invalid applicable  attribute name in request.</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels {  geopoliticalId  localeCode  addressLineNumber  brandAddressLineDescription  applicabl}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"dfa1682a-9ff8-4737-835c-6286ec4f4f7a",
+		"timeStamp":"2020-07-14T08:54:38.845+0000",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'applicabl' in type 'AddressLabel' is undefined @ 'addressLabels/applicabl'",
+			"path":null
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL  service successfully retrieving all  details when  geopoliticalId, Locale code and addressLineNumber  parameter is passed and  geopoliticalId attribute not passed in request body</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels (geopoliticalId:\"6428655554025313328\", localeCode:\"KO\" ,  addressLineNumber: 1){    localeCode  addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_localeCode: KO
+DB_localeCode: KO
+Response_addressLineNumber: 1
+DB_addressLineNumber: 1
+Response_brandAddressLineDescription: TestBrandAddressA
+DB_brandAddressLineDescription: TestBrandAddressA
+Response_applicable: 0
+DB_applicable: 0
+</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL  service successfully retrieving all  details when  geopoliticalId, Locale code and addressLineNumber  parameter is passed and  Locale code attribute not passed in request body</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels (geopoliticalId:\"6428655554025313328\", localeCode:\"KO\" ,  addressLineNumber: 1){  geopoliticalId    addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 6428655554025313328
+DB_geopoliticalId: 6428655554025313328
+Response_addressLineNumber: 1
+DB_addressLineNumber: 1
+Response_brandAddressLineDescription: TestBrandAddressA
+DB_brandAddressLineDescription: TestBrandAddressA
+Response_applicable: 0
+DB_applicable: 0
+</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL  service successfully retrieving all  details when  geopoliticalId, Locale code and addressLineNumber  parameter is passed and  addressLineNumber attribute not passed in request body</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels (geopoliticalId:\"6428655554025313328\", localeCode:\"KO\" ,  addressLineNumber: 1){  geopoliticalId  localeCode    brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 6428655554025313328
+DB_geopoliticalId: 6428655554025313328
+Response_localeCode: KO
+DB_localeCode: KO
+Response_brandAddressLineDescription: TestBrandAddressA
+DB_brandAddressLineDescription: TestBrandAddressA
+Response_applicable: 0
+DB_applicable: 0
+</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL  service successfully retrieving all  details when  geopoliticalId, Locale code and addressLineNumber  parameter is passed and  brandAddressLineDescription attribute not passed in request body</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels (geopoliticalId:\"6428655554025313328\", localeCode:\"KO\" ,  addressLineNumber: 1){  geopoliticalId  localeCode  addressLineNumber    applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 6428655554025313328
+DB_geopoliticalId: 6428655554025313328
+Response_localeCode: KO
+DB_localeCode: KO
+Response_addressLineNumber: 1
+DB_addressLineNumber: 1
+Response_applicable: 0
+DB_applicable: 0
+</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL  service successfully retrieving all  details when  geopoliticalId, Locale code and addressLineNumber  parameter is passed and  applicableFlag  attribute not passed in request body</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels (geopoliticalId:\"6428655554025313328\", localeCode:\"KO\" ,  addressLineNumber: 1){  geopoliticalId  localeCode  addressLineNumber  brandAddressLineDescription  }} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 6428655554025313328
+DB_geopoliticalId: 6428655554025313328
+Response_localeCode: KO
+DB_localeCode: KO
+Response_addressLineNumber: 1
+DB_addressLineNumber: 1
+Response_brandAddressLineDescription: TestBrandAddressA
+DB_brandAddressLineDescription: TestBrandAddressA
+</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>Verify that the Address Label GraphQL service is successfully retrieving data within the tagetDate and endDate is passed in URI</t>
+  </si>
+  <si>
+    <t>{"query":"{addressLabels (targetDate:\"2022-09-27\", endDate:\"2025-09-30\" ){  geopoliticalId  localeCode  addressLineNumber  brandAddressLineDescription  applicable}} ","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t>Total number of records matching between DB &amp; Response: 10, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 5779091224180468778
+DB_geopoliticalId: 5779091224180468778
+Response_localeCode: cd
+DB_localeCode: cd
+Response_addressLineNumber: 3
+DB_addressLineNumber: 3
+Response_brandAddressLineDescription: Testing Brand Address D
+DB_brandAddressLineDescription: Testing Brand Address D
+Response_applicable: 0
+DB_applicable: 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 7886394310148935545
+DB_geopoliticalId: 7886394310148935545
+Response_localeCode: en-YN
+DB_localeCode: en-YN
+Response_addressLineNumber: 4
+DB_addressLineNumber: 4
+Response_brandAddressLineDescription: ADDRESS LINE 5
+DB_brandAddressLineDescription: ADDRESS LINE 5
+Response_applicable: 1
+DB_applicable: 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 6428655554025313328
+DB_geopoliticalId: 6428655554025313328
+Response_localeCode: KO
+DB_localeCode: KO
+Response_addressLineNumber: 8
+DB_addressLineNumber: 8
+Response_brandAddressLineDescription: TestBrandAddressA
+DB_brandAddressLineDescription: TestBrandAddressA
+Response_applicable: 0
+DB_applicable: 0
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="519">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -102,6 +717,2481 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -280,7 +3370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -349,6 +3439,1491 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -430,18 +5005,20 @@
       <c r="F2" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" t="s" s="8">
+        <v>16</v>
+      </c>
       <c r="H2" t="s" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="10">
         <v>15</v>
       </c>
       <c r="J2" t="s" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2"/>
     </row>
@@ -471,15 +5048,1635 @@
         <v>15</v>
       </c>
       <c r="I3" t="s" s="21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>15</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>15</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>15</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s" s="67">
+        <v>15</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>15</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>15</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>29</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>29</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>29</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>29</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="141">
         <v>17</v>
       </c>
-      <c r="K3" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="L3"/>
+      <c r="I14" t="s" s="142">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>36</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>15</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>36</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>15</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s" s="180">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="181">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>36</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="189">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s" s="190">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s" s="191">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="192">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s" s="194">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s" s="196">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s" s="197">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="198">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s" s="199">
+        <v>15</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="200">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s" s="201">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s" s="202">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="203">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s" s="204">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s" s="205">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="206">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="207">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="208">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s" s="209">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s" s="210">
+        <v>15</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="211">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s" s="212">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s" s="213">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="214">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s" s="215">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s" s="216">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s" s="217">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="218">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="219">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s" s="220">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s" s="221">
+        <v>15</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="222">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s" s="223">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s" s="224">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="225">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s" s="226">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s" s="227">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s" s="228">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="229">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="230">
+        <v>54</v>
+      </c>
+      <c r="J22" t="s" s="231">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s" s="232">
+        <v>15</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="233">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s" s="234">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s" s="235">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="236">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s" s="237">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s" s="238">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s" s="239">
+        <v>58</v>
+      </c>
+      <c r="H23" t="s" s="240">
+        <v>59</v>
+      </c>
+      <c r="I23" t="s" s="241">
+        <v>60</v>
+      </c>
+      <c r="J23" t="s" s="242">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s" s="243">
+        <v>15</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="244">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s" s="245">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s" s="246">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="247">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s" s="248">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s" s="249">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s" s="250">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s" s="251">
+        <v>59</v>
+      </c>
+      <c r="I24" t="s" s="252">
+        <v>64</v>
+      </c>
+      <c r="J24" t="s" s="253">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s" s="254">
+        <v>15</v>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="255">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s" s="256">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s" s="257">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="258">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s" s="259">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s" s="260">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s" s="261">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s" s="262">
+        <v>59</v>
+      </c>
+      <c r="I25" t="s" s="263">
+        <v>68</v>
+      </c>
+      <c r="J25" t="s" s="264">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s" s="265">
+        <v>15</v>
+      </c>
+      <c r="L25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="266">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s" s="267">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s" s="268">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="269">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s" s="270">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s" s="271">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s" s="272">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s" s="273">
+        <v>59</v>
+      </c>
+      <c r="I26" t="s" s="274">
+        <v>72</v>
+      </c>
+      <c r="J26" t="s" s="275">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s" s="276">
+        <v>15</v>
+      </c>
+      <c r="L26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="277">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s" s="278">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s" s="279">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="280">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s" s="281">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s" s="282">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s" s="283">
+        <v>58</v>
+      </c>
+      <c r="H27" t="s" s="284">
+        <v>59</v>
+      </c>
+      <c r="I27" t="s" s="285">
+        <v>76</v>
+      </c>
+      <c r="J27" t="s" s="286">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s" s="287">
+        <v>15</v>
+      </c>
+      <c r="L27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="288">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s" s="289">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s" s="290">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s" s="291">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s" s="292">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s" s="293">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s" s="294">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s" s="295">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="296">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s" s="297">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s" s="298">
+        <v>36</v>
+      </c>
+      <c r="L28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="299">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s" s="300">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s" s="301">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="302">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s" s="303">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s" s="304">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s" s="305">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s" s="306">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s" s="307">
+        <v>80</v>
+      </c>
+      <c r="J29" t="s" s="308">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s" s="309">
+        <v>15</v>
+      </c>
+      <c r="L29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="310">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s" s="311">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s" s="312">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s" s="313">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s" s="314">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s" s="315">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s" s="316">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s" s="317">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s" s="318">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s" s="319">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s" s="320">
+        <v>36</v>
+      </c>
+      <c r="L30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="321">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s" s="322">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s" s="323">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="324">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s" s="325">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s" s="326">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s" s="327">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s" s="328">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s" s="329">
+        <v>84</v>
+      </c>
+      <c r="J31" t="s" s="330">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s" s="331">
+        <v>15</v>
+      </c>
+      <c r="L31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="332">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s" s="333">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s" s="334">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="335">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s" s="336">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s" s="337">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s" s="338">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s" s="339">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s" s="340">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s" s="341">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s" s="342">
+        <v>36</v>
+      </c>
+      <c r="L32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="343">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s" s="344">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s" s="345">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s" s="346">
+        <v>87</v>
+      </c>
+      <c r="E33" t="s" s="347">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s" s="348">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s" s="349">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s" s="350">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s" s="351">
+        <v>88</v>
+      </c>
+      <c r="J33" t="s" s="352">
+        <v>18</v>
+      </c>
+      <c r="K33" t="s" s="353">
+        <v>15</v>
+      </c>
+      <c r="L33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="354">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s" s="355">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s" s="356">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s" s="357">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s" s="358">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s" s="359">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s" s="360">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s" s="361">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s" s="362">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s" s="363">
+        <v>18</v>
+      </c>
+      <c r="K34" t="s" s="364">
+        <v>36</v>
+      </c>
+      <c r="L34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="365">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s" s="366">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s" s="367">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s" s="368">
+        <v>91</v>
+      </c>
+      <c r="E35" t="s" s="369">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s" s="370">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s" s="371">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s" s="372">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s" s="373">
+        <v>92</v>
+      </c>
+      <c r="J35" t="s" s="374">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s" s="375">
+        <v>15</v>
+      </c>
+      <c r="L35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="376">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s" s="377">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s" s="378">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s" s="379">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s" s="380">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s" s="381">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s" s="382">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="383">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s" s="384">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s" s="385">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s" s="386">
+        <v>36</v>
+      </c>
+      <c r="L36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="387">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s" s="388">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s" s="389">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s" s="390">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s" s="391">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s" s="392">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s" s="393">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s" s="394">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s" s="395">
+        <v>96</v>
+      </c>
+      <c r="J37" t="s" s="396">
+        <v>18</v>
+      </c>
+      <c r="K37" t="s" s="397">
+        <v>15</v>
+      </c>
+      <c r="L37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="398">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s" s="399">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s" s="400">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s" s="401">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s" s="402">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s" s="403">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s" s="404">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="405">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s" s="406">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s" s="407">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s" s="408">
+        <v>100</v>
+      </c>
+      <c r="L38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="409">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s" s="410">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s" s="411">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s" s="412">
+        <v>99</v>
+      </c>
+      <c r="E39" t="s" s="413">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s" s="414">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s" s="415">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s" s="416">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s" s="417">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s" s="418">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s" s="419">
+        <v>15</v>
+      </c>
+      <c r="L39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="420">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s" s="421">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s" s="422">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s" s="423">
+        <v>99</v>
+      </c>
+      <c r="E40" t="s" s="424">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s" s="425">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s" s="426">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s" s="427">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s" s="428">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s" s="429">
+        <v>18</v>
+      </c>
+      <c r="K40" t="s" s="430">
+        <v>15</v>
+      </c>
+      <c r="L40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="431">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s" s="432">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s" s="433">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s" s="434">
+        <v>99</v>
+      </c>
+      <c r="E41" t="s" s="435">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s" s="436">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s" s="437">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s" s="438">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s" s="439">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s" s="440">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s" s="441">
+        <v>15</v>
+      </c>
+      <c r="L41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="442">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s" s="443">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s" s="444">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s" s="445">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s" s="446">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s" s="447">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s" s="448">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s" s="449">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s" s="450">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s" s="451">
+        <v>18</v>
+      </c>
+      <c r="K42" t="s" s="452">
+        <v>15</v>
+      </c>
+      <c r="L42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="453">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s" s="454">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s" s="455">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s" s="456">
+        <v>99</v>
+      </c>
+      <c r="E43" t="s" s="457">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s" s="458">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s" s="459">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s" s="460">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s" s="461">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s" s="462">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s" s="463">
+        <v>15</v>
+      </c>
+      <c r="L43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="464">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s" s="465">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s" s="466">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s" s="467">
+        <v>99</v>
+      </c>
+      <c r="E44" t="s" s="468">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s" s="469">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s" s="470">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s" s="471">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s" s="472">
+        <v>23</v>
+      </c>
+      <c r="J44" t="s" s="473">
+        <v>18</v>
+      </c>
+      <c r="K44" t="s" s="474">
+        <v>15</v>
+      </c>
+      <c r="L44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="475">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s" s="476">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s" s="477">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s" s="478">
+        <v>99</v>
+      </c>
+      <c r="E45" t="s" s="479">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s" s="480">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s" s="481">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s" s="482">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s" s="483">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s" s="484">
+        <v>18</v>
+      </c>
+      <c r="K45" t="s" s="485">
+        <v>15</v>
+      </c>
+      <c r="L45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="486">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s" s="487">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s" s="488">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s" s="489">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s" s="490">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s" s="491">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s" s="492">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s" s="493">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s" s="494">
+        <v>101</v>
+      </c>
+      <c r="J46" t="s" s="495">
+        <v>18</v>
+      </c>
+      <c r="K46" t="s" s="496">
+        <v>15</v>
+      </c>
+      <c r="L46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="497">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s" s="498">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s" s="499">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s" s="500">
+        <v>99</v>
+      </c>
+      <c r="E47" t="s" s="501">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s" s="502">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s" s="503">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s" s="504">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s" s="505">
+        <v>102</v>
+      </c>
+      <c r="J47" t="s" s="506">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s" s="507">
+        <v>15</v>
+      </c>
+      <c r="L47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="508">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s" s="509">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s" s="510">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s" s="511">
+        <v>99</v>
+      </c>
+      <c r="E48" t="s" s="512">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s" s="513">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s" s="514">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s" s="515">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s" s="516">
+        <v>103</v>
+      </c>
+      <c r="J48" t="s" s="517">
+        <v>18</v>
+      </c>
+      <c r="K48" t="s" s="518">
+        <v>15</v>
+      </c>
+      <c r="L48"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
